--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11796" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,11 +45,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +415,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="13.88671875" customWidth="1" min="1" max="1"/>
+    <col width="15.33203125" customWidth="1" min="2" max="2"/>
+    <col width="15.6640625" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -446,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08/10/2025 09:23:45</t>
+          <t>12/09/2025 14:36:27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1803</t>
         </is>
       </c>
     </row>
@@ -463,12 +470,875 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>08/10/2025 09:34:10</t>
+          <t>12/09/2025 14:36:34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08-10-2025</t>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DES3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:36:34</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DES4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:36:35</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DES5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:36:35</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DES6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:36:35</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DES7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:36:35</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DES8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:36:36</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DES9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:36:36</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DES10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:36:36</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DES11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:36:36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DES12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DES13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DES14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DES15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DES16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DES17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DES18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:24</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DES19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DES20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DES21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:25</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DES1633</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:25</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DES1634</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>12/09/2025 14:43:59</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DESCONSIDERAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DES1635</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10/10/2025 13:39:10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DES1830</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10/10/2025 13:39:11</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DES1831</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10/10/2025 13:39:54</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DES1832</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10/10/2025 13:40:37</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DES1833</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10/10/2025 13:40:57</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DES1834</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>10/10/2025 13:48:25</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DES1835</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10/10/2025 13:48:47</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DES1836</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10/10/2025 13:49:05</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DES1837</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10/10/2025 13:58:14</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DES1838</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:00:36</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DES1839</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:05:31</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DES1840</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:08:06</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DES1841</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:08:38</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DES1842</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:09:17</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DES1843</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:09:48</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DES1844</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:10:10</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DES1845</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:10:50</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DES1846</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:11:16</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DES1847</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:12:28</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DES1848</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:12:57</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DES1849</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:25:56</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DES1850</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:31:46</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DES1851</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:34:37</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DES1852</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:35:58</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DES1853</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:41:20</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DES1854</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:45:27</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DES1855</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:52:59</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DES1856</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>10/10/2025 14:52:59</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DES1857</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>10/10/2025 15:16:32</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DES1858</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10/10/2025 16:26:28</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1930</t>
         </is>
       </c>
     </row>

--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1342,6 +1342,40 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>DES1859</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10/10/2025 17:03:01</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DES1860</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>10/10/2025 17:03:12</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1376,6 +1376,40 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>DES1861</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>13/10/2025 09:20:34</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DES1862</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>13/10/2025 09:37:56</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1410,6 +1410,57 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>VDS1863</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>14/10/2025 16:18:32</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>VDS1864</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>14/10/2025 16:34:21</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>VDS1865</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>14/10/2025 16:34:31</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1461,6 +1461,23 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>VDS1866</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>16/10/2025 08:01:19</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Alaiance</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1478,6 +1478,91 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>VDS1867</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>17/10/2025 08:08:52</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Orç-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>VDS1868</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>17/10/2025 08:10:45</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Orç-17-10-pc-100x100</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>VDS1869</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>17/10/2025 08:22:32</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Orç-17-10 - Pc Redonda-teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>VDS1870</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>17/10/2025 08:26:27</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Orç-17-10-500x500</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>VDS1871</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>17/10/2025 08:28:38</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Orç-17-10 500x500</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1563,6 +1563,74 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>VDS1872</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>17/10/2025 16:34:38</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Implementar triangulos</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>VDS1873</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>17/10/2025 16:46:25</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Triangulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VDS1874</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>17/10/2025 16:57:06</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Triangulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>VDS1875</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>17/10/2025 17:02:57</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Triangulo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
